--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\projects\prtf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B83DC21-CD49-4A41-9AFF-42A3438F444A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938210B9-AD80-49E9-9AD9-545A6E4C3415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12920" yWindow="7420" windowWidth="20970" windowHeight="12750" xr2:uid="{A2B9B819-AE35-480B-B600-D6B765DFD50B}"/>
+    <workbookView xWindow="4210" yWindow="4710" windowWidth="24860" windowHeight="12750" xr2:uid="{A2B9B819-AE35-480B-B600-D6B765DFD50B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t xml:space="preserve">buy </t>
   </si>
@@ -73,6 +73,132 @@
   </si>
   <si>
     <t>priceprovider + parameter</t>
+  </si>
+  <si>
+    <t>Bitcoin</t>
+  </si>
+  <si>
+    <t>Etherium</t>
+  </si>
+  <si>
+    <t>Eth</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>fee</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Base Currency</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ledger:</t>
+  </si>
+  <si>
+    <t>transactions:</t>
+  </si>
+  <si>
+    <t>asset1</t>
+  </si>
+  <si>
+    <t>asset2</t>
+  </si>
+  <si>
+    <t>amount1</t>
+  </si>
+  <si>
+    <t>amount2</t>
+  </si>
+  <si>
+    <t>feeAsset</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>SAP Turbo</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>Stk</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>Manual 1</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>AssetType</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>KnockoutCertificate</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Leverage</t>
+  </si>
+  <si>
+    <t>LeverageTrade</t>
   </si>
 </sst>
 </file>
@@ -88,12 +214,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,8 +240,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -424,20 +557,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860AC5B0-2F48-4399-A7E5-3597FB513540}">
-  <dimension ref="D7:H19"/>
+  <dimension ref="D7:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="13.26953125" customWidth="1"/>
     <col min="5" max="5" width="6.26953125" customWidth="1"/>
-    <col min="7" max="7" width="23.36328125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" customWidth="1"/>
+    <col min="11" max="11" width="17.36328125" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" customWidth="1"/>
+    <col min="14" max="14" width="21.90625" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" customWidth="1"/>
+    <col min="16" max="16" width="9.6328125" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:15" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>3</v>
       </c>
@@ -448,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:15" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>4</v>
       </c>
@@ -456,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:15" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>5</v>
       </c>
@@ -464,34 +606,283 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:15" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:15" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="I13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="N15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" t="s">
+        <v>53</v>
+      </c>
+      <c r="O19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" t="s">
+        <v>34</v>
+      </c>
+      <c r="O26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>36</v>
+      </c>
+      <c r="R26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>-10</v>
+      </c>
+      <c r="L27" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="29" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\projects\prtf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938210B9-AD80-49E9-9AD9-545A6E4C3415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936ECB0E-E379-4267-8320-0ED97630AE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4210" yWindow="4710" windowWidth="24860" windowHeight="12750" xr2:uid="{A2B9B819-AE35-480B-B600-D6B765DFD50B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{A2B9B819-AE35-480B-B600-D6B765DFD50B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,47 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
-  <si>
-    <t xml:space="preserve">buy </t>
-  </si>
-  <si>
-    <t>sell</t>
-  </si>
-  <si>
-    <t>swap</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>btc</t>
   </si>
   <si>
-    <t>eth</t>
-  </si>
-  <si>
     <t>sap</t>
   </si>
   <si>
-    <t>amzn</t>
-  </si>
-  <si>
     <t>ggl</t>
   </si>
   <si>
-    <t>manual</t>
-  </si>
-  <si>
-    <t>priceprovider</t>
-  </si>
-  <si>
-    <t>kraken</t>
-  </si>
-  <si>
-    <t>yahoo</t>
-  </si>
-  <si>
-    <t>priceprovider + parameter</t>
-  </si>
-  <si>
     <t>Bitcoin</t>
   </si>
   <si>
@@ -102,9 +72,6 @@
     <t>EUR</t>
   </si>
   <si>
-    <t>fee</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -129,27 +96,6 @@
     <t>ledger:</t>
   </si>
   <si>
-    <t>transactions:</t>
-  </si>
-  <si>
-    <t>asset1</t>
-  </si>
-  <si>
-    <t>asset2</t>
-  </si>
-  <si>
-    <t>amount1</t>
-  </si>
-  <si>
-    <t>amount2</t>
-  </si>
-  <si>
-    <t>feeAsset</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
     <t>Gold</t>
   </si>
   <si>
@@ -168,44 +114,62 @@
     <t>Dollar</t>
   </si>
   <si>
-    <t>Manual 1</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>AssetType</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>KnockoutCertificate</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Simple</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>Option</t>
-  </si>
-  <si>
-    <t>Leverage</t>
-  </si>
-  <si>
-    <t>LeverageTrade</t>
+    <t>assets</t>
+  </si>
+  <si>
+    <t>fiat</t>
+  </si>
+  <si>
+    <t>crypto</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>rawmetal</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>price provider</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>[Yahoo(GLDEUR, now), EUR], [Yahoo(GLDUSD, now), USD]</t>
+  </si>
+  <si>
+    <t>[Manual(1), EUR], [Yahoo(EURUSD), now, USD]</t>
+  </si>
+  <si>
+    <t>BTC/USD</t>
+  </si>
+  <si>
+    <t>BTC/EUR</t>
+  </si>
+  <si>
+    <t>ETH/EUR</t>
+  </si>
+  <si>
+    <t>SAP/EUR</t>
+  </si>
+  <si>
+    <t>assets:</t>
+  </si>
+  <si>
+    <t>pricetable:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,8 +177,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,7 +194,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,9 +217,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -557,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860AC5B0-2F48-4399-A7E5-3597FB513540}">
-  <dimension ref="D7:R32"/>
+  <dimension ref="H6:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,318 +565,359 @@
     <col min="8" max="8" width="8.81640625" customWidth="1"/>
     <col min="9" max="9" width="14.26953125" customWidth="1"/>
     <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="17.36328125" customWidth="1"/>
+    <col min="11" max="11" width="61.81640625" customWidth="1"/>
     <col min="13" max="13" width="12.7265625" customWidth="1"/>
-    <col min="14" max="14" width="21.90625" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" customWidth="1"/>
-    <col min="16" max="16" width="9.6328125" customWidth="1"/>
+    <col min="14" max="14" width="10.36328125" customWidth="1"/>
+    <col min="15" max="15" width="10.26953125" customWidth="1"/>
+    <col min="16" max="16" width="8.1796875" customWidth="1"/>
     <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="18" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="E7" t="s">
+    <row r="6" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6">
+        <v>48900</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7">
+        <v>41442</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8">
+        <v>2983</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9">
+        <v>122.08</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
+      <c r="S9" s="8">
+        <f>T10/T9</f>
+        <v>1.1799623570291009</v>
+      </c>
+      <c r="T9" s="3">
+        <f>O7</f>
+        <v>41442</v>
+      </c>
+      <c r="U9" s="3">
+        <f>O8</f>
+        <v>2983</v>
+      </c>
+      <c r="V9">
+        <f>O9</f>
+        <v>122.08</v>
+      </c>
+    </row>
+    <row r="10" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="Q10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="3">
+        <v>1</v>
+      </c>
+      <c r="T10" s="3">
+        <f>O6</f>
+        <v>48900</v>
+      </c>
+      <c r="U10" s="6">
+        <f>O8*O7/O6</f>
+        <v>2528.0467484662577</v>
+      </c>
+      <c r="V10" s="7">
+        <f>O6/O7*O9</f>
+        <v>144.04980454611263</v>
+      </c>
+    </row>
+    <row r="11" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="Q11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="3">
+        <v>1</v>
+      </c>
+      <c r="U11" s="6">
+        <f>O8/O7</f>
+        <v>7.1980116789730222E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="I13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="16" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="J17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="E8" t="s">
+      <c r="L17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
         <v>4</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="I13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="I14" t="s">
+      <c r="L20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="I21" t="s">
         <v>21</v>
       </c>
-      <c r="J14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="N15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
         <v>9</v>
       </c>
-      <c r="I16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" t="s">
-        <v>48</v>
-      </c>
-      <c r="O17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="D18" t="s">
+      <c r="J26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
         <v>10</v>
-      </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L19" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" t="s">
-        <v>53</v>
-      </c>
-      <c r="O19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="I20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="I21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="I22" t="s">
-        <v>38</v>
-      </c>
-      <c r="L22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="L24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="H25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="H26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" t="s">
-        <v>28</v>
-      </c>
-      <c r="M26" t="s">
-        <v>32</v>
-      </c>
-      <c r="N26" t="s">
-        <v>34</v>
-      </c>
-      <c r="O26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P26" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>36</v>
-      </c>
-      <c r="R26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="4:18" x14ac:dyDescent="0.35">
-      <c r="H27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" t="s">
-        <v>20</v>
       </c>
       <c r="J27">
         <v>-10</v>
       </c>
-      <c r="L27" t="s">
-        <v>2</v>
-      </c>
-      <c r="M27" t="s">
-        <v>20</v>
-      </c>
-      <c r="N27">
-        <v>3</v>
-      </c>
-      <c r="O27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>21</v>
-      </c>
-      <c r="R27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="4:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J28">
         <v>-5</v>
       </c>
     </row>
-    <row r="29" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H29" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J29">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H30" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H31" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H32" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J32">
         <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K38" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\projects\prtf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936ECB0E-E379-4267-8320-0ED97630AE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E7D82C-6E38-466A-A18B-77BB43A54068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{A2B9B819-AE35-480B-B600-D6B765DFD50B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>btc</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Dollar</t>
   </si>
   <si>
-    <t>assets</t>
-  </si>
-  <si>
     <t>fiat</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>unit</t>
   </si>
   <si>
-    <t>price provider</t>
-  </si>
-  <si>
     <t>Ticker</t>
   </si>
   <si>
@@ -162,7 +156,55 @@
     <t>assets:</t>
   </si>
   <si>
-    <t>pricetable:</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>transactions:</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data </t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>fees</t>
+  </si>
+  <si>
+    <t>trade:</t>
+  </si>
+  <si>
+    <t>out (value + fees)</t>
+  </si>
+  <si>
+    <t>transactionid</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>pricematrix:</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>out/in/destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in </t>
+  </si>
+  <si>
+    <t>out</t>
   </si>
 </sst>
 </file>
@@ -185,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +246,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -217,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -237,6 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -551,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860AC5B0-2F48-4399-A7E5-3597FB513540}">
-  <dimension ref="H6:V38"/>
+  <dimension ref="I12:AC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,7 +615,7 @@
     <col min="9" max="9" width="14.26953125" customWidth="1"/>
     <col min="10" max="10" width="10.54296875" customWidth="1"/>
     <col min="11" max="11" width="61.81640625" customWidth="1"/>
-    <col min="13" max="13" width="12.7265625" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
     <col min="14" max="14" width="10.36328125" customWidth="1"/>
     <col min="15" max="15" width="10.26953125" customWidth="1"/>
     <col min="16" max="16" width="8.1796875" customWidth="1"/>
@@ -574,161 +623,50 @@
     <col min="18" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6">
-        <v>48900</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="N7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7">
-        <v>41442</v>
-      </c>
-      <c r="R7" s="3">
-        <v>1</v>
-      </c>
-      <c r="S7" s="3">
-        <v>1</v>
-      </c>
-      <c r="T7" s="3">
-        <v>1</v>
-      </c>
-      <c r="U7" s="3">
-        <v>1</v>
-      </c>
-      <c r="V7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="N8" t="s">
+    <row r="12" spans="9:29" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
         <v>39</v>
       </c>
-      <c r="O8">
-        <v>2983</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="N9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9">
-        <v>122.08</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1</v>
-      </c>
-      <c r="S9" s="8">
-        <f>T10/T9</f>
-        <v>1.1799623570291009</v>
-      </c>
-      <c r="T9" s="3">
-        <f>O7</f>
-        <v>41442</v>
-      </c>
-      <c r="U9" s="3">
-        <f>O8</f>
-        <v>2983</v>
-      </c>
-      <c r="V9">
-        <f>O9</f>
-        <v>122.08</v>
-      </c>
-    </row>
-    <row r="10" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="Q10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="3">
-        <v>1</v>
-      </c>
-      <c r="T10" s="3">
-        <f>O6</f>
-        <v>48900</v>
-      </c>
-      <c r="U10" s="6">
-        <f>O8*O7/O6</f>
-        <v>2528.0467484662577</v>
-      </c>
-      <c r="V10" s="7">
-        <f>O6/O7*O9</f>
-        <v>144.04980454611263</v>
-      </c>
-    </row>
-    <row r="11" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="Q11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="3">
-        <v>1</v>
-      </c>
-      <c r="U11" s="6">
-        <f>O8/O7</f>
-        <v>7.1980116789730222E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="I12" t="s">
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="9:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="9:29" x14ac:dyDescent="0.35">
       <c r="I13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="9:22" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13">
+        <v>48900</v>
+      </c>
+      <c r="X13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="9:29" x14ac:dyDescent="0.35">
       <c r="I14" t="s">
         <v>11</v>
       </c>
@@ -736,18 +674,80 @@
         <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L14" t="s">
         <v>15</v>
       </c>
       <c r="M14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="16" spans="9:22" x14ac:dyDescent="0.35">
+      <c r="O14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U14" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14">
+        <v>41442</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="9:29" x14ac:dyDescent="0.35">
+      <c r="Q15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U15" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15">
+        <v>2983</v>
+      </c>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="9:29" x14ac:dyDescent="0.35">
       <c r="I16" t="s">
         <v>25</v>
       </c>
@@ -757,8 +757,45 @@
       <c r="L16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="Q16" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" t="s">
+        <v>51</v>
+      </c>
+      <c r="S16" t="s">
+        <v>51</v>
+      </c>
+      <c r="U16" t="s">
+        <v>38</v>
+      </c>
+      <c r="V16">
+        <v>122.08</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="8">
+        <f>AA17/AA16</f>
+        <v>1.1799623570291009</v>
+      </c>
+      <c r="AA16" s="3">
+        <f>V14</f>
+        <v>41442</v>
+      </c>
+      <c r="AB16" s="3">
+        <f>V15</f>
+        <v>2983</v>
+      </c>
+      <c r="AC16">
+        <f>V16</f>
+        <v>122.08</v>
+      </c>
+    </row>
+    <row r="17" spans="9:29" x14ac:dyDescent="0.35">
       <c r="I17" t="s">
         <v>3</v>
       </c>
@@ -769,10 +806,29 @@
         <v>10</v>
       </c>
       <c r="M17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="3">
+        <f>V13</f>
+        <v>48900</v>
+      </c>
+      <c r="AB17" s="6">
+        <f>V15*V14/V13</f>
+        <v>2528.0467484662577</v>
+      </c>
+      <c r="AC17" s="7">
+        <f>V13/V14*V16</f>
+        <v>144.04980454611263</v>
+      </c>
+    </row>
+    <row r="18" spans="9:29" x14ac:dyDescent="0.35">
       <c r="I18" t="s">
         <v>4</v>
       </c>
@@ -782,8 +838,20 @@
       <c r="L18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="X18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="6">
+        <f>V15/V14</f>
+        <v>7.1980116789730222E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="9:29" x14ac:dyDescent="0.35">
       <c r="I19" t="s">
         <v>6</v>
       </c>
@@ -793,8 +861,17 @@
       <c r="L19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="X19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="9:29" x14ac:dyDescent="0.35">
       <c r="I20" t="s">
         <v>7</v>
       </c>
@@ -805,10 +882,10 @@
         <v>23</v>
       </c>
       <c r="M20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="9:29" x14ac:dyDescent="0.35">
       <c r="I21" t="s">
         <v>21</v>
       </c>
@@ -816,111 +893,164 @@
         <v>23</v>
       </c>
       <c r="M21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="8:13" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="9:29" x14ac:dyDescent="0.35">
       <c r="I22" t="s">
         <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L22" t="s">
         <v>22</v>
       </c>
       <c r="M22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="9:29" x14ac:dyDescent="0.35">
+      <c r="P23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" t="s">
+    <row r="24" spans="9:29" x14ac:dyDescent="0.35">
+      <c r="P24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J26" t="s">
+      <c r="R24" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="S24" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="9:29" x14ac:dyDescent="0.35">
+      <c r="P25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" t="s">
         <v>10</v>
       </c>
-      <c r="J27">
+      <c r="R25">
         <v>-10</v>
       </c>
-    </row>
-    <row r="28" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="S25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="9:29" x14ac:dyDescent="0.35">
+      <c r="P26" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" t="s">
         <v>8</v>
       </c>
-      <c r="J28">
+      <c r="R26">
         <v>-5</v>
       </c>
-    </row>
-    <row r="29" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="S26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="9:29" x14ac:dyDescent="0.35">
+      <c r="P27" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" t="s">
         <v>11</v>
       </c>
-      <c r="J29">
+      <c r="R27">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="S27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="9:29" x14ac:dyDescent="0.35">
+      <c r="P28" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" t="s">
         <v>11</v>
       </c>
-      <c r="J30">
+      <c r="R28">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="S28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="9:29" x14ac:dyDescent="0.35">
+      <c r="P29" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29" t="s">
         <v>11</v>
       </c>
-      <c r="J31">
+      <c r="R29">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="S29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="9:29" x14ac:dyDescent="0.35">
+      <c r="P30" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q30" t="s">
         <v>12</v>
       </c>
-      <c r="J32">
+      <c r="R30">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K38" t="s">
-        <v>26</v>
+      <c r="S30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="14:21" x14ac:dyDescent="0.35">
+      <c r="U41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="14:21" x14ac:dyDescent="0.35">
+      <c r="N42" t="s">
+        <v>41</v>
+      </c>
+      <c r="U42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="14:21" x14ac:dyDescent="0.35">
+      <c r="N43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="14:21" x14ac:dyDescent="0.35">
+      <c r="N44" t="s">
+        <v>53</v>
+      </c>
+      <c r="O44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="14:21" x14ac:dyDescent="0.35">
+      <c r="N45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="14:21" x14ac:dyDescent="0.35">
+      <c r="N46" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>